--- a/output.xlsx
+++ b/output.xlsx
@@ -29,7 +29,7 @@
     <t>bigdecimal</t>
   </si>
   <si>
-    <t>20171223145546</t>
+    <t>20180415153529</t>
   </si>
   <si>
     <t>hi0</t>
